--- a/RND Counsel_Defect_Log_03_01_2018.xlsx
+++ b/RND Counsel_Defect_Log_03_01_2018.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="28395" windowHeight="12300"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="28395" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RND Counsel_Updated Version" sheetId="1" r:id="rId1"/>
     <sheet name="Defect Status Definitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Repo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I2:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
+    <sheetView topLeftCell="K21" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1288,10 +1288,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Document" shapeId="2049" r:id="rId2"/>
+  </oleObjects>
 </worksheet>
 </file>